--- a/backend/templates/test.xlsx
+++ b/backend/templates/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\5. Project\Nodejs\d5\MERN_practice\backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Fun\7. NodeJs\MERN_practice\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B28A3-C611-4602-B39F-82740F5E50F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23203964-71DB-4516-B800-35181D376E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1" sheetId="3" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <definedName name="KUBUN_1">[5]ﾃｰﾌﾞﾙ!$A$1:$B$6</definedName>
     <definedName name="KUBUN_2">[5]ﾃｰﾌﾞﾙ!$D$1:$E$14</definedName>
     <definedName name="pc">"グループ 260"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'M1'!$A$1:$AJ$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'M1'!$A$1:$AJ$48</definedName>
     <definedName name="PSタイプ">OFFSET([4]セレクトマスタ!$R$4,0,0,COUNTA([4]セレクトマスタ!$R:$R)-1,1)</definedName>
     <definedName name="PS旧デフォルト項目名">OFFSET([4]セレクトマスタ!$U$4,0,0,COUNTA([4]セレクトマスタ!$U:$U)-1,1)</definedName>
     <definedName name="s" localSheetId="0" hidden="1">{"'ＥＤＩ'!$H$5:$I$6"}</definedName>
@@ -455,24 +455,6 @@
     <definedName name="wrn.ORIG._3" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="wrn.ORIG._4" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="wrn.ORIG._4" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="wrn.予算表." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表." hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._3" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._4" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._4" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
     <definedName name="wrn.見積・注文." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
     <definedName name="wrn.見積・注文." hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
     <definedName name="wrn.見積・注文._1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
@@ -509,6 +491,24 @@
     <definedName name="wrn.追加ＰＣ見積._3" hidden="1">{#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (2)";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (3)"}</definedName>
     <definedName name="wrn.追加ＰＣ見積._4" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (2)";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (3)"}</definedName>
     <definedName name="wrn.追加ＰＣ見積._4" hidden="1">{#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (2)";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (3)"}</definedName>
+    <definedName name="wrn.予算表." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表." hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._3" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._4" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._4" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
     <definedName name="Z_1A6A27BE_997B_11D6_80C2_0010B50176E6_.wvu.PrintArea" localSheetId="0">#REF!</definedName>
     <definedName name="Z_1A6A27BE_997B_11D6_80C2_0010B50176E6_.wvu.PrintArea">#REF!</definedName>
     <definedName name="あ" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
@@ -629,31 +629,31 @@
     <definedName name="ふぇふぇｆｗであｄｓ_4" hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
     <definedName name="ヘッダ" localSheetId="0">#REF!</definedName>
     <definedName name="ヘッダ">#REF!</definedName>
+    <definedName name="拠点名" localSheetId="0">#REF!</definedName>
+    <definedName name="拠点名">#REF!</definedName>
+    <definedName name="型">[6]設定!$D$2:$D$22</definedName>
+    <definedName name="型番">[9]WK!$C$4:$C$12</definedName>
+    <definedName name="桁">[6]設定!$F$2:$F$9</definedName>
     <definedName name="作成日" localSheetId="0">#REF!</definedName>
     <definedName name="作成日">#REF!</definedName>
     <definedName name="作成日２" localSheetId="0">#REF!</definedName>
     <definedName name="作成日２">#REF!</definedName>
-    <definedName name="型">[6]設定!$D$2:$D$22</definedName>
-    <definedName name="型番">[9]WK!$C$4:$C$12</definedName>
+    <definedName name="質問121" localSheetId="0">#REF!</definedName>
+    <definedName name="質問121">#REF!</definedName>
+    <definedName name="社員シート旧デフォルト項目名">OFFSET([4]セレクトマスタ!$AB$4,0,0,COUNTA([4]セレクトマスタ!$AB:$AB)-1,1)</definedName>
+    <definedName name="社員シート参照権限全員">OFFSET([4]セレクトマスタ!$AA$4,0,0,COUNTA([4]セレクトマスタ!$AA:$AA)-1,1)</definedName>
+    <definedName name="社員シート参照権限本人">OFFSET([4]セレクトマスタ!$Z$4,0,0,COUNTA([4]セレクトマスタ!$Z:$Z)-1,1)</definedName>
     <definedName name="小林">[3]D2930_BILOG_部材割引申請ＤＢ_BILOG!小林</definedName>
+    <definedName name="進捗状況計上フラグ">OFFSET([4]セレクトマスタ!$AE$4,0,0,COUNTA([4]セレクトマスタ!$AE:$AE)-1,1)</definedName>
+    <definedName name="進捗状況進捗状況名">OFFSET([4]セレクトマスタ!$AD$4,0,0,COUNTA([4]セレクトマスタ!$AD:$AD)-1,1)</definedName>
+    <definedName name="進捗状況登録・検索">OFFSET([4]セレクトマスタ!$AF$4,0,0,COUNTA([4]セレクトマスタ!$AF:$AF)-1,1)</definedName>
     <definedName name="属性">[6]設定!$C$2:$C$11</definedName>
+    <definedName name="締日" localSheetId="0">#REF!</definedName>
+    <definedName name="締日">#REF!</definedName>
     <definedName name="必須">[6]設定!$B$2:$B$3</definedName>
-    <definedName name="拠点名" localSheetId="0">#REF!</definedName>
-    <definedName name="拠点名">#REF!</definedName>
     <definedName name="明細" localSheetId="0">#REF!</definedName>
     <definedName name="明細">#REF!</definedName>
-    <definedName name="桁">[6]設定!$F$2:$F$9</definedName>
-    <definedName name="社員シート参照権限全員">OFFSET([4]セレクトマスタ!$AA$4,0,0,COUNTA([4]セレクトマスタ!$AA:$AA)-1,1)</definedName>
-    <definedName name="社員シート参照権限本人">OFFSET([4]セレクトマスタ!$Z$4,0,0,COUNTA([4]セレクトマスタ!$Z:$Z)-1,1)</definedName>
-    <definedName name="社員シート旧デフォルト項目名">OFFSET([4]セレクトマスタ!$AB$4,0,0,COUNTA([4]セレクトマスタ!$AB:$AB)-1,1)</definedName>
-    <definedName name="締日" localSheetId="0">#REF!</definedName>
-    <definedName name="締日">#REF!</definedName>
     <definedName name="要員配置">[3]D2930_BILOG_部材割引申請ＤＢ_BILOG!要員配置</definedName>
-    <definedName name="質問121" localSheetId="0">#REF!</definedName>
-    <definedName name="質問121">#REF!</definedName>
-    <definedName name="進捗状況登録・検索">OFFSET([4]セレクトマスタ!$AF$4,0,0,COUNTA([4]セレクトマスタ!$AF:$AF)-1,1)</definedName>
-    <definedName name="進捗状況計上フラグ">OFFSET([4]セレクトマスタ!$AE$4,0,0,COUNTA([4]セレクトマスタ!$AE:$AE)-1,1)</definedName>
-    <definedName name="進捗状況進捗状況名">OFFSET([4]セレクトマスタ!$AD$4,0,0,COUNTA([4]セレクトマスタ!$AD:$AD)-1,1)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>区分</t>
   </si>
@@ -757,16 +757,10 @@
     <t>承 認</t>
   </si>
   <si>
-    <t>AnhNT</t>
-  </si>
-  <si>
     <t>審 査</t>
   </si>
   <si>
     <t>作 成</t>
-  </si>
-  <si>
-    <t>MinhBB</t>
   </si>
   <si>
     <t>Ｎ：正常、Ｅ：異常、Ｌ：限界、Ｚ：ゼロ</t>
@@ -825,14 +819,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="yyyy\.mm\.dd"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
   <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -942,7 +936,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -961,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1652,13 +1646,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,23 +1937,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
@@ -1959,15 +1966,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
@@ -2011,6 +2018,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2020,18 +2038,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2092,6 +2098,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2106,15 +2121,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,7 +2162,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2172,6 +2178,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -13647,22 +13665,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN4" sqref="AN4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="23" customWidth="1"/>
-    <col min="2" max="14" width="3.5703125" style="23" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="23" customWidth="1"/>
-    <col min="16" max="28" width="3.5703125" style="23" customWidth="1"/>
-    <col min="29" max="29" width="3.5703125" style="24" customWidth="1"/>
-    <col min="30" max="35" width="3.5703125" style="23" customWidth="1"/>
-    <col min="36" max="36" width="1.85546875" style="23" customWidth="1"/>
-    <col min="37" max="16384" width="9.85546875" style="23"/>
+    <col min="1" max="1" width="1.875" style="23" customWidth="1"/>
+    <col min="2" max="14" width="3.625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="23" customWidth="1"/>
+    <col min="16" max="28" width="3.625" style="23" customWidth="1"/>
+    <col min="29" max="29" width="3.625" style="24" customWidth="1"/>
+    <col min="30" max="35" width="3.625" style="23" customWidth="1"/>
+    <col min="36" max="36" width="1.875" style="23" customWidth="1"/>
+    <col min="37" max="16384" width="9.875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="6" customHeight="1" thickBot="1"/>
@@ -13671,39 +13689,39 @@
         <v>0</v>
       </c>
       <c r="L2" s="25"/>
-      <c r="M2" s="136">
+      <c r="M2" s="139">
         <v>1</v>
       </c>
-      <c r="N2" s="137"/>
+      <c r="N2" s="140"/>
       <c r="O2" s="26"/>
-      <c r="P2" s="138" t="s">
+      <c r="P2" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="141" t="s">
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="144" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="136" t="s">
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="136" t="s">
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="137"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="140"/>
     </row>
     <row r="3" spans="1:36" ht="18.95" customHeight="1">
       <c r="B3" s="27"/>
@@ -13790,17 +13808,17 @@
       <c r="J5" s="40"/>
       <c r="K5" s="33"/>
       <c r="O5" s="34"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="145"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="138"/>
       <c r="AA5" s="130"/>
       <c r="AB5" s="131"/>
       <c r="AC5" s="132"/>
@@ -13860,46 +13878,46 @@
         <v>12</v>
       </c>
       <c r="T7" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="V7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="49" t="s">
+      <c r="W7" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="49" t="s">
+      <c r="X7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="49" t="s">
+      <c r="Y7" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="X7" s="49" t="s">
+      <c r="Z7" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="49" t="s">
+      <c r="AA7" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="Z7" s="49" t="s">
+      <c r="AB7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="49" t="s">
+      <c r="AC7" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="49" t="s">
+      <c r="AD7" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="AC7" s="49" t="s">
+      <c r="AE7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="49" t="s">
+      <c r="AF7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="AE7" s="49" t="s">
+      <c r="AG7" s="49" t="s">
         <v>43</v>
-      </c>
-      <c r="AF7" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG7" s="49" t="s">
-        <v>45</v>
       </c>
       <c r="AH7" s="50"/>
       <c r="AI7" s="50"/>
@@ -14634,19 +14652,19 @@
       <c r="B27" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="117"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="163"/>
+      <c r="K27" s="163"/>
+      <c r="L27" s="163"/>
+      <c r="M27" s="163"/>
+      <c r="N27" s="163"/>
+      <c r="O27" s="164"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -14672,19 +14690,19 @@
     <row r="28" spans="1:36" s="57" customFormat="1">
       <c r="A28" s="51"/>
       <c r="B28" s="150"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="113"/>
-      <c r="N28" s="113"/>
-      <c r="O28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="117"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -14710,19 +14728,19 @@
     <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A29" s="51"/>
       <c r="B29" s="150"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="113"/>
-      <c r="N29" s="113"/>
-      <c r="O29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -14748,19 +14766,19 @@
     <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A30" s="51"/>
       <c r="B30" s="150"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="114"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="117"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="6"/>
@@ -14786,19 +14804,19 @@
     <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A31" s="51"/>
       <c r="B31" s="150"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="113"/>
-      <c r="O31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="117"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="8"/>
@@ -14824,19 +14842,19 @@
     <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A32" s="51"/>
       <c r="B32" s="150"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="114"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="18"/>
@@ -14861,414 +14879,675 @@
     </row>
     <row r="33" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A33" s="51"/>
-      <c r="B33" s="151"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="69"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="112"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="114"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
       <c r="AJ33" s="56"/>
     </row>
-    <row r="34" spans="1:36" ht="51" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79" t="s">
+    <row r="34" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="112"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="113"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="70"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="56"/>
+    </row>
+    <row r="35" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="112"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="114"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="70"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="56"/>
+    </row>
+    <row r="36" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="117"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="113"/>
+      <c r="AD36" s="114"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="70"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="56"/>
+    </row>
+    <row r="37" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="112"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="113"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="70"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="56"/>
+    </row>
+    <row r="38" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="51"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="18"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="113"/>
+      <c r="AD38" s="114"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="70"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="56"/>
+    </row>
+    <row r="39" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="51"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="113"/>
+      <c r="AD39" s="114"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="56"/>
+    </row>
+    <row r="40" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="51"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
+      <c r="T40" s="68"/>
+      <c r="U40" s="68"/>
+      <c r="V40" s="68"/>
+      <c r="W40" s="68"/>
+      <c r="X40" s="68"/>
+      <c r="Y40" s="68"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="68"/>
+      <c r="AB40" s="68"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="68"/>
+      <c r="AE40" s="68"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="56"/>
+    </row>
+    <row r="41" spans="1:36" ht="51" customHeight="1">
+      <c r="A41" s="45"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="82"/>
-      <c r="Z34" s="82"/>
-      <c r="AA34" s="82"/>
-      <c r="AB34" s="82"/>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="82"/>
-      <c r="AE34" s="82"/>
-      <c r="AF34" s="82"/>
-      <c r="AG34" s="82"/>
-      <c r="AH34" s="82"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="44"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="82"/>
+      <c r="X41" s="82"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="83"/>
+      <c r="AD41" s="82"/>
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="82"/>
+      <c r="AH41" s="82"/>
+      <c r="AI41" s="84"/>
+      <c r="AJ41" s="44"/>
     </row>
-    <row r="35" spans="1:36" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="88" t="s">
+    <row r="42" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="91"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="91"/>
-      <c r="AE35" s="91"/>
-      <c r="AF35" s="91"/>
-      <c r="AG35" s="91"/>
-      <c r="AH35" s="91"/>
-      <c r="AI35" s="93"/>
-      <c r="AJ35" s="44"/>
+      <c r="P42" s="89"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="90"/>
+      <c r="T42" s="90"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="90"/>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="91"/>
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="91"/>
+      <c r="AE42" s="91"/>
+      <c r="AF42" s="91"/>
+      <c r="AG42" s="91"/>
+      <c r="AH42" s="91"/>
+      <c r="AI42" s="93"/>
+      <c r="AJ42" s="44"/>
     </row>
-    <row r="36" spans="1:36" ht="26.25" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="94" t="s">
+    <row r="43" spans="1:36" ht="26.25" customHeight="1">
+      <c r="A43" s="45"/>
+      <c r="B43" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="88" t="s">
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="98"/>
-      <c r="X36" s="98"/>
-      <c r="Y36" s="98"/>
-      <c r="Z36" s="98"/>
-      <c r="AA36" s="98"/>
-      <c r="AB36" s="98"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="98"/>
-      <c r="AE36" s="98"/>
-      <c r="AF36" s="98"/>
-      <c r="AG36" s="98"/>
-      <c r="AH36" s="98"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="44"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="Y43" s="98"/>
+      <c r="Z43" s="98"/>
+      <c r="AA43" s="98"/>
+      <c r="AB43" s="98"/>
+      <c r="AC43" s="99"/>
+      <c r="AD43" s="98"/>
+      <c r="AE43" s="98"/>
+      <c r="AF43" s="98"/>
+      <c r="AG43" s="98"/>
+      <c r="AH43" s="98"/>
+      <c r="AI43" s="98"/>
+      <c r="AJ43" s="44"/>
     </row>
-    <row r="37" spans="1:36" ht="23.1" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47" t="s">
+    <row r="44" spans="1:36" ht="23.1" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="102" t="s">
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="100"/>
+      <c r="K44" s="100"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
+      <c r="P44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="Q37" s="102" t="s">
+      <c r="Q44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="R37" s="102" t="s">
+      <c r="R44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="S37" s="102" t="s">
+      <c r="S44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="T37" s="102"/>
-      <c r="U37" s="102"/>
-      <c r="V37" s="102"/>
-      <c r="W37" s="102"/>
-      <c r="X37" s="102"/>
-      <c r="Y37" s="102"/>
-      <c r="Z37" s="102"/>
-      <c r="AA37" s="102"/>
-      <c r="AB37" s="102"/>
-      <c r="AC37" s="102"/>
-      <c r="AD37" s="102"/>
-      <c r="AE37" s="102"/>
-      <c r="AF37" s="102"/>
-      <c r="AG37" s="102"/>
-      <c r="AH37" s="102"/>
-      <c r="AI37" s="102"/>
-      <c r="AJ37" s="44"/>
+      <c r="T44" s="102"/>
+      <c r="U44" s="102"/>
+      <c r="V44" s="102"/>
+      <c r="W44" s="102"/>
+      <c r="X44" s="102"/>
+      <c r="Y44" s="102"/>
+      <c r="Z44" s="102"/>
+      <c r="AA44" s="102"/>
+      <c r="AB44" s="102"/>
+      <c r="AC44" s="102"/>
+      <c r="AD44" s="102"/>
+      <c r="AE44" s="102"/>
+      <c r="AF44" s="102"/>
+      <c r="AG44" s="102"/>
+      <c r="AH44" s="102"/>
+      <c r="AI44" s="102"/>
+      <c r="AJ44" s="44"/>
     </row>
-    <row r="38" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="96" t="s">
+    <row r="45" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A45" s="45"/>
+      <c r="B45" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="103"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="155" t="s">
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="Z38" s="155"/>
-      <c r="AA38" s="155"/>
-      <c r="AB38" s="156" t="s">
+      <c r="Z45" s="155"/>
+      <c r="AA45" s="155"/>
+      <c r="AB45" s="156"/>
+      <c r="AC45" s="156"/>
+      <c r="AD45" s="156"/>
+      <c r="AE45" s="156"/>
+      <c r="AF45" s="157"/>
+      <c r="AG45" s="157"/>
+      <c r="AH45" s="157"/>
+      <c r="AI45" s="157"/>
+      <c r="AJ45" s="44"/>
+    </row>
+    <row r="46" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="96"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="96"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="106"/>
+      <c r="Y46" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="AC38" s="156"/>
-      <c r="AD38" s="156"/>
-      <c r="AE38" s="156"/>
-      <c r="AF38" s="157">
-        <v>44046</v>
-      </c>
-      <c r="AG38" s="157"/>
-      <c r="AH38" s="157"/>
-      <c r="AI38" s="157"/>
-      <c r="AJ38" s="44"/>
+      <c r="Z46" s="155"/>
+      <c r="AA46" s="155"/>
+      <c r="AB46" s="156"/>
+      <c r="AC46" s="156"/>
+      <c r="AD46" s="156"/>
+      <c r="AE46" s="156"/>
+      <c r="AF46" s="157"/>
+      <c r="AG46" s="157"/>
+      <c r="AH46" s="157"/>
+      <c r="AI46" s="157"/>
+      <c r="AJ46" s="44"/>
     </row>
-    <row r="39" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="155" t="s">
+    <row r="47" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="M47" s="108"/>
+      <c r="N47" s="108"/>
+      <c r="O47" s="109"/>
+      <c r="P47" s="107"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="Z39" s="155"/>
-      <c r="AA39" s="155"/>
-      <c r="AB39" s="156" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC39" s="156"/>
-      <c r="AD39" s="156"/>
-      <c r="AE39" s="156"/>
-      <c r="AF39" s="157">
-        <v>44046</v>
-      </c>
-      <c r="AG39" s="157"/>
-      <c r="AH39" s="157"/>
-      <c r="AI39" s="157"/>
-      <c r="AJ39" s="44"/>
+      <c r="Z47" s="155"/>
+      <c r="AA47" s="155"/>
+      <c r="AB47" s="146"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
+      <c r="AE47" s="148"/>
+      <c r="AF47" s="157"/>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157"/>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="44"/>
     </row>
-    <row r="40" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="107"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
-      <c r="T40" s="108"/>
-      <c r="U40" s="108"/>
-      <c r="V40" s="108"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="155" t="s">
+    <row r="48" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="Z40" s="155"/>
-      <c r="AA40" s="155"/>
-      <c r="AB40" s="146" t="s">
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="108"/>
+      <c r="K48" s="108"/>
+      <c r="L48" s="108"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="108"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="108"/>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+      <c r="T48" s="108"/>
+      <c r="U48" s="109"/>
+      <c r="V48" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="AC40" s="147"/>
-      <c r="AD40" s="147"/>
-      <c r="AE40" s="148"/>
-      <c r="AF40" s="157">
-        <v>44041</v>
-      </c>
-      <c r="AG40" s="157"/>
-      <c r="AH40" s="157"/>
-      <c r="AI40" s="157"/>
-      <c r="AJ40" s="44"/>
-    </row>
-    <row r="41" spans="1:36" ht="17.100000000000001" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
-      <c r="T41" s="108"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="W41" s="47"/>
-      <c r="X41" s="111"/>
-      <c r="Y41" s="100"/>
-      <c r="Z41" s="100"/>
-      <c r="AA41" s="101"/>
-      <c r="AB41" s="158">
+      <c r="W48" s="47"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="158">
         <f>AG6</f>
         <v>1</v>
       </c>
-      <c r="AC41" s="159"/>
-      <c r="AD41" s="159"/>
-      <c r="AE41" s="147" t="s">
-        <v>31</v>
+      <c r="AC48" s="159"/>
+      <c r="AD48" s="159"/>
+      <c r="AE48" s="147" t="s">
+        <v>29</v>
       </c>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="160">
+      <c r="AF48" s="147"/>
+      <c r="AG48" s="160">
         <f>AI6</f>
         <v>18</v>
       </c>
-      <c r="AH41" s="160"/>
-      <c r="AI41" s="161"/>
-      <c r="AJ41" s="44"/>
+      <c r="AH48" s="160"/>
+      <c r="AI48" s="161"/>
+      <c r="AJ48" s="44"/>
     </row>
-    <row r="42" spans="1:36" ht="6" customHeight="1"/>
-    <row r="43" spans="1:36" ht="17.100000000000001" customHeight="1"/>
+    <row r="49" ht="6" customHeight="1"/>
+    <row r="50" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="AB40:AE40"/>
-    <mergeCell ref="AF40:AI40"/>
-    <mergeCell ref="AB41:AD41"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="AG41:AI41"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AE38"/>
-    <mergeCell ref="AF38:AI38"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AB39:AE39"/>
-    <mergeCell ref="AF39:AI39"/>
+  <mergeCells count="57">
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="AB47:AE47"/>
+    <mergeCell ref="AF47:AI47"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AI48"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="AB45:AE45"/>
+    <mergeCell ref="AF45:AI45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="AB46:AE46"/>
+    <mergeCell ref="AF46:AI46"/>
     <mergeCell ref="AA6:AF6"/>
     <mergeCell ref="B8:B26"/>
-    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B27:B40"/>
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="C9:O9"/>
     <mergeCell ref="C10:O10"/>
@@ -15277,6 +15556,11 @@
     <mergeCell ref="C13:O13"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="P2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
@@ -15288,11 +15572,6 @@
     <mergeCell ref="AG3:AI5"/>
     <mergeCell ref="P4:Z4"/>
     <mergeCell ref="P5:Z5"/>
-    <mergeCell ref="C16:O16"/>
-    <mergeCell ref="C17:O17"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C19:O19"/>
-    <mergeCell ref="C20:O20"/>
     <mergeCell ref="C21:O21"/>
     <mergeCell ref="C22:O22"/>
     <mergeCell ref="C23:O23"/>

--- a/backend/templates/test.xlsx
+++ b/backend/templates/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2. Fun\7. NodeJs\MERN_practice\backend\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\5. Project\Nodejs\d5\MERN_practice\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23203964-71DB-4516-B800-35181D376E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773AEC49-776F-4D4A-9D97-AEF4F79C67BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1" sheetId="3" r:id="rId1"/>
@@ -284,7 +284,7 @@
     <definedName name="KUBUN_1">[5]ﾃｰﾌﾞﾙ!$A$1:$B$6</definedName>
     <definedName name="KUBUN_2">[5]ﾃｰﾌﾞﾙ!$D$1:$E$14</definedName>
     <definedName name="pc">"グループ 260"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'M1'!$A$1:$AJ$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'M1'!$A$1:$AJ$53</definedName>
     <definedName name="PSタイプ">OFFSET([4]セレクトマスタ!$R$4,0,0,COUNTA([4]セレクトマスタ!$R:$R)-1,1)</definedName>
     <definedName name="PS旧デフォルト項目名">OFFSET([4]セレクトマスタ!$U$4,0,0,COUNTA([4]セレクトマスタ!$U:$U)-1,1)</definedName>
     <definedName name="s" localSheetId="0" hidden="1">{"'ＥＤＩ'!$H$5:$I$6"}</definedName>
@@ -455,6 +455,24 @@
     <definedName name="wrn.ORIG._3" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="wrn.ORIG._4" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="wrn.ORIG._4" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
+    <definedName name="wrn.予算表." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表." hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._1_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._2_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._3" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._4" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
+    <definedName name="wrn.予算表._4" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
     <definedName name="wrn.見積・注文." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
     <definedName name="wrn.見積・注文." hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
     <definedName name="wrn.見積・注文._1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
@@ -491,24 +509,6 @@
     <definedName name="wrn.追加ＰＣ見積._3" hidden="1">{#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (2)";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (3)"}</definedName>
     <definedName name="wrn.追加ＰＣ見積._4" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (2)";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (3)"}</definedName>
     <definedName name="wrn.追加ＰＣ見積._4" hidden="1">{#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (2)";#N/A,#N/A,FALSE,"見積ﾊﾟﾀｰﾝ1 (3)"}</definedName>
-    <definedName name="wrn.予算表." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表." hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._1_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_1" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_1" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._2_2" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._3" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._4" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
-    <definedName name="wrn.予算表._4" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
     <definedName name="Z_1A6A27BE_997B_11D6_80C2_0010B50176E6_.wvu.PrintArea" localSheetId="0">#REF!</definedName>
     <definedName name="Z_1A6A27BE_997B_11D6_80C2_0010B50176E6_.wvu.PrintArea">#REF!</definedName>
     <definedName name="あ" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"予算表";#N/A,#N/A,FALSE,"人件費"}</definedName>
@@ -629,31 +629,31 @@
     <definedName name="ふぇふぇｆｗであｄｓ_4" hidden="1">{#N/A,#N/A,FALSE,"見積書";#N/A,#N/A,FALSE,"注文書"}</definedName>
     <definedName name="ヘッダ" localSheetId="0">#REF!</definedName>
     <definedName name="ヘッダ">#REF!</definedName>
-    <definedName name="拠点名" localSheetId="0">#REF!</definedName>
-    <definedName name="拠点名">#REF!</definedName>
-    <definedName name="型">[6]設定!$D$2:$D$22</definedName>
-    <definedName name="型番">[9]WK!$C$4:$C$12</definedName>
-    <definedName name="桁">[6]設定!$F$2:$F$9</definedName>
     <definedName name="作成日" localSheetId="0">#REF!</definedName>
     <definedName name="作成日">#REF!</definedName>
     <definedName name="作成日２" localSheetId="0">#REF!</definedName>
     <definedName name="作成日２">#REF!</definedName>
+    <definedName name="型">[6]設定!$D$2:$D$22</definedName>
+    <definedName name="型番">[9]WK!$C$4:$C$12</definedName>
+    <definedName name="小林">[3]D2930_BILOG_部材割引申請ＤＢ_BILOG!小林</definedName>
+    <definedName name="属性">[6]設定!$C$2:$C$11</definedName>
+    <definedName name="必須">[6]設定!$B$2:$B$3</definedName>
+    <definedName name="拠点名" localSheetId="0">#REF!</definedName>
+    <definedName name="拠点名">#REF!</definedName>
+    <definedName name="明細" localSheetId="0">#REF!</definedName>
+    <definedName name="明細">#REF!</definedName>
+    <definedName name="桁">[6]設定!$F$2:$F$9</definedName>
+    <definedName name="社員シート参照権限全員">OFFSET([4]セレクトマスタ!$AA$4,0,0,COUNTA([4]セレクトマスタ!$AA:$AA)-1,1)</definedName>
+    <definedName name="社員シート参照権限本人">OFFSET([4]セレクトマスタ!$Z$4,0,0,COUNTA([4]セレクトマスタ!$Z:$Z)-1,1)</definedName>
+    <definedName name="社員シート旧デフォルト項目名">OFFSET([4]セレクトマスタ!$AB$4,0,0,COUNTA([4]セレクトマスタ!$AB:$AB)-1,1)</definedName>
+    <definedName name="締日" localSheetId="0">#REF!</definedName>
+    <definedName name="締日">#REF!</definedName>
+    <definedName name="要員配置">[3]D2930_BILOG_部材割引申請ＤＢ_BILOG!要員配置</definedName>
     <definedName name="質問121" localSheetId="0">#REF!</definedName>
     <definedName name="質問121">#REF!</definedName>
-    <definedName name="社員シート旧デフォルト項目名">OFFSET([4]セレクトマスタ!$AB$4,0,0,COUNTA([4]セレクトマスタ!$AB:$AB)-1,1)</definedName>
-    <definedName name="社員シート参照権限全員">OFFSET([4]セレクトマスタ!$AA$4,0,0,COUNTA([4]セレクトマスタ!$AA:$AA)-1,1)</definedName>
-    <definedName name="社員シート参照権限本人">OFFSET([4]セレクトマスタ!$Z$4,0,0,COUNTA([4]セレクトマスタ!$Z:$Z)-1,1)</definedName>
-    <definedName name="小林">[3]D2930_BILOG_部材割引申請ＤＢ_BILOG!小林</definedName>
+    <definedName name="進捗状況登録・検索">OFFSET([4]セレクトマスタ!$AF$4,0,0,COUNTA([4]セレクトマスタ!$AF:$AF)-1,1)</definedName>
     <definedName name="進捗状況計上フラグ">OFFSET([4]セレクトマスタ!$AE$4,0,0,COUNTA([4]セレクトマスタ!$AE:$AE)-1,1)</definedName>
     <definedName name="進捗状況進捗状況名">OFFSET([4]セレクトマスタ!$AD$4,0,0,COUNTA([4]セレクトマスタ!$AD:$AD)-1,1)</definedName>
-    <definedName name="進捗状況登録・検索">OFFSET([4]セレクトマスタ!$AF$4,0,0,COUNTA([4]セレクトマスタ!$AF:$AF)-1,1)</definedName>
-    <definedName name="属性">[6]設定!$C$2:$C$11</definedName>
-    <definedName name="締日" localSheetId="0">#REF!</definedName>
-    <definedName name="締日">#REF!</definedName>
-    <definedName name="必須">[6]設定!$B$2:$B$3</definedName>
-    <definedName name="明細" localSheetId="0">#REF!</definedName>
-    <definedName name="明細">#REF!</definedName>
-    <definedName name="要員配置">[3]D2930_BILOG_部材割引申請ＤＢ_BILOG!要員配置</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -819,14 +819,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -891,12 +891,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -905,13 +899,6 @@
     <font>
       <sz val="10"/>
       <name val="MS PMincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
@@ -936,7 +923,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -955,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1429,19 +1416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1665,7 +1639,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1687,11 +1661,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1703,15 +1677,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1723,35 +1693,23 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1844,14 +1802,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1860,18 +1810,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1879,30 +1825,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1915,19 +1842,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
@@ -1937,23 +1864,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="53" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
@@ -1966,15 +1893,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="2" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
@@ -1984,7 +1911,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2018,27 +1945,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2139,7 +2059,7 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
       <protection locked="0"/>
     </xf>
@@ -2162,7 +2082,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2189,6 +2109,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -13665,282 +13597,282 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961F266A-B1EB-4F19-84A2-CD1F09B9F4D9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:O30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="23" customWidth="1"/>
-    <col min="2" max="14" width="3.625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="20.375" style="23" customWidth="1"/>
-    <col min="16" max="28" width="3.625" style="23" customWidth="1"/>
-    <col min="29" max="29" width="3.625" style="24" customWidth="1"/>
-    <col min="30" max="35" width="3.625" style="23" customWidth="1"/>
-    <col min="36" max="36" width="1.875" style="23" customWidth="1"/>
-    <col min="37" max="16384" width="9.875" style="23"/>
+    <col min="1" max="1" width="1.85546875" style="19" customWidth="1"/>
+    <col min="2" max="14" width="3.5703125" style="19" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="19" customWidth="1"/>
+    <col min="16" max="28" width="3.5703125" style="19" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" style="20" customWidth="1"/>
+    <col min="30" max="35" width="3.5703125" style="19" customWidth="1"/>
+    <col min="36" max="36" width="1.85546875" style="19" customWidth="1"/>
+    <col min="37" max="16384" width="9.85546875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="6" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:36" ht="18.95" customHeight="1" thickBot="1">
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="139">
+      <c r="L2" s="21"/>
+      <c r="M2" s="125">
         <v>1</v>
       </c>
-      <c r="N2" s="140"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="141" t="s">
+      <c r="N2" s="126"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="144" t="s">
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="139" t="s">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="145"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="139" t="s">
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="126"/>
     </row>
     <row r="3" spans="1:36" ht="18.95" customHeight="1">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="34"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="124"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="124"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="124"/>
-      <c r="AH3" s="125"/>
-      <c r="AI3" s="126"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="112"/>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1" thickBot="1">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="33" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="134"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="128"/>
-      <c r="AI4" s="129"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="115"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="113"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="115"/>
     </row>
     <row r="5" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="33"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="138"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="132"/>
-      <c r="AG5" s="130"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="132"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="29"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="123"/>
+      <c r="Y5" s="123"/>
+      <c r="Z5" s="124"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="118"/>
+      <c r="AG5" s="116"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="118"/>
     </row>
     <row r="6" spans="1:36" ht="21" customHeight="1">
-      <c r="AA6" s="146" t="s">
+      <c r="AA6" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="147"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="147"/>
-      <c r="AF6" s="148"/>
-      <c r="AG6" s="41">
+      <c r="AB6" s="133"/>
+      <c r="AC6" s="133"/>
+      <c r="AD6" s="133"/>
+      <c r="AE6" s="133"/>
+      <c r="AF6" s="134"/>
+      <c r="AG6" s="37">
         <v>1</v>
       </c>
-      <c r="AH6" s="42" t="s">
+      <c r="AH6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI6" s="43">
+      <c r="AI6" s="39">
         <v>18</v>
       </c>
-      <c r="AJ6" s="44"/>
+      <c r="AJ6" s="40"/>
     </row>
     <row r="7" spans="1:36" ht="99.6" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="49" t="s">
+      <c r="Q7" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="49" t="s">
+      <c r="T7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="49" t="s">
+      <c r="U7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="49" t="s">
+      <c r="V7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="49" t="s">
+      <c r="W7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="X7" s="49" t="s">
+      <c r="X7" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="49" t="s">
+      <c r="Y7" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Z7" s="49" t="s">
+      <c r="Z7" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AA7" s="49" t="s">
+      <c r="AA7" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="49" t="s">
+      <c r="AB7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AC7" s="49" t="s">
+      <c r="AC7" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AD7" s="49" t="s">
+      <c r="AD7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AE7" s="49" t="s">
+      <c r="AE7" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AF7" s="49" t="s">
+      <c r="AF7" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="49" t="s">
+      <c r="AG7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="44"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="40"/>
     </row>
-    <row r="8" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="149" t="s">
+    <row r="8" spans="1:36" s="53" customFormat="1">
+      <c r="A8" s="47"/>
+      <c r="B8" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="152"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="153"/>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="154"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="140"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -13953,32 +13885,32 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="56"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="50"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="52"/>
     </row>
-    <row r="9" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="118"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120"/>
+    <row r="9" spans="1:36" s="53" customFormat="1">
+      <c r="A9" s="47"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="106"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -13991,602 +13923,602 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="56"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="52"/>
     </row>
-    <row r="10" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A10" s="51"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="65"/>
-      <c r="AJ10" s="56"/>
+    <row r="10" spans="1:36" s="53" customFormat="1">
+      <c r="A10" s="47"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="52"/>
     </row>
-    <row r="11" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="56"/>
+    <row r="11" spans="1:36" s="53" customFormat="1">
+      <c r="A11" s="47"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="52"/>
     </row>
-    <row r="12" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="65"/>
-      <c r="AJ12" s="56"/>
+    <row r="12" spans="1:36" s="53" customFormat="1">
+      <c r="A12" s="47"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="52"/>
     </row>
-    <row r="13" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="65"/>
-      <c r="AJ13" s="56"/>
+    <row r="13" spans="1:36" s="53" customFormat="1">
+      <c r="A13" s="47"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="52"/>
     </row>
-    <row r="14" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="65"/>
-      <c r="AJ14" s="56"/>
+    <row r="14" spans="1:36" s="53" customFormat="1">
+      <c r="A14" s="47"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="52"/>
     </row>
-    <row r="15" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="56"/>
+    <row r="15" spans="1:36" s="53" customFormat="1">
+      <c r="A15" s="47"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="52"/>
     </row>
-    <row r="16" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="51"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="64"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="56"/>
+    <row r="16" spans="1:36" s="53" customFormat="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="59"/>
+      <c r="AJ16" s="52"/>
     </row>
-    <row r="17" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A17" s="51"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="64"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="56"/>
+    <row r="17" spans="1:36" s="53" customFormat="1">
+      <c r="A17" s="47"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="52"/>
     </row>
-    <row r="18" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="51"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="56"/>
+    <row r="18" spans="1:36" s="53" customFormat="1">
+      <c r="A18" s="47"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="52"/>
     </row>
-    <row r="19" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="56"/>
+    <row r="19" spans="1:36" s="53" customFormat="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="52"/>
     </row>
-    <row r="20" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="8"/>
-      <c r="AH20" s="64"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="56"/>
+    <row r="20" spans="1:36" s="53" customFormat="1">
+      <c r="A20" s="47"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="52"/>
     </row>
-    <row r="21" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="51"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="8"/>
-      <c r="AH21" s="64"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="56"/>
+    <row r="21" spans="1:36" s="53" customFormat="1">
+      <c r="A21" s="47"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="52"/>
     </row>
-    <row r="22" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="51"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="8"/>
-      <c r="AH22" s="64"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="56"/>
+    <row r="22" spans="1:36" s="53" customFormat="1">
+      <c r="A22" s="47"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="52"/>
     </row>
-    <row r="23" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="51"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="119"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="64"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="56"/>
+    <row r="23" spans="1:36" s="53" customFormat="1">
+      <c r="A23" s="47"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="52"/>
     </row>
-    <row r="24" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="119"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="119"/>
-      <c r="K24" s="119"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="64"/>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="56"/>
+    <row r="24" spans="1:36" s="53" customFormat="1">
+      <c r="A24" s="47"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="52"/>
     </row>
-    <row r="25" spans="1:36" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="119"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="120"/>
+    <row r="25" spans="1:36" s="53" customFormat="1">
+      <c r="A25" s="47"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="106"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
@@ -14605,66 +14537,66 @@
       <c r="AE25" s="6"/>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="65"/>
-      <c r="AJ25" s="56"/>
+      <c r="AH25" s="58"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="52"/>
     </row>
-    <row r="26" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="51"/>
-      <c r="B26" s="150"/>
+    <row r="26" spans="1:36" s="53" customFormat="1">
+      <c r="A26" s="47"/>
+      <c r="B26" s="136"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="67"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="60"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="56"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="61"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="52"/>
     </row>
-    <row r="27" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="149" t="s">
+    <row r="27" spans="1:36" s="53" customFormat="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="162"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="163"/>
-      <c r="K27" s="163"/>
-      <c r="L27" s="163"/>
-      <c r="M27" s="163"/>
-      <c r="N27" s="163"/>
-      <c r="O27" s="164"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="150"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -14678,31 +14610,31 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="54"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="50"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
-      <c r="AH27" s="52"/>
-      <c r="AI27" s="55"/>
-      <c r="AJ27" s="56"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="52"/>
     </row>
-    <row r="28" spans="1:36" s="57" customFormat="1">
-      <c r="A28" s="51"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="117"/>
+    <row r="28" spans="1:36" s="53" customFormat="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="153"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -14710,844 +14642,1027 @@
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="56"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="52"/>
     </row>
-    <row r="29" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="117"/>
+    <row r="29" spans="1:36" s="53" customFormat="1">
+      <c r="A29" s="47"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="152"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="153"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="62"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="56"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="52"/>
     </row>
-    <row r="30" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="117"/>
+    <row r="30" spans="1:36" s="53" customFormat="1">
+      <c r="A30" s="47"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="153"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="65"/>
-      <c r="AJ30" s="56"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="52"/>
     </row>
-    <row r="31" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="65"/>
-      <c r="AJ31" s="56"/>
+    <row r="31" spans="1:36" s="53" customFormat="1">
+      <c r="A31" s="47"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="52"/>
     </row>
-    <row r="32" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A32" s="51"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="19"/>
+    <row r="32" spans="1:36" s="53" customFormat="1">
+      <c r="A32" s="47"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="152"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="8"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="56"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="52"/>
     </row>
-    <row r="33" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A33" s="51"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="112"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18"/>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="113"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="70"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="56"/>
+    <row r="33" spans="1:36" s="53" customFormat="1">
+      <c r="A33" s="47"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
+      <c r="O33" s="153"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="52"/>
     </row>
-    <row r="34" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A34" s="51"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="113"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="70"/>
-      <c r="AI34" s="71"/>
-      <c r="AJ34" s="56"/>
+    <row r="34" spans="1:36" s="53" customFormat="1">
+      <c r="A34" s="47"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="152"/>
+      <c r="N34" s="152"/>
+      <c r="O34" s="153"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="52"/>
     </row>
-    <row r="35" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="112"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="114"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="70"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="56"/>
+    <row r="35" spans="1:36" s="53" customFormat="1">
+      <c r="A35" s="47"/>
+      <c r="B35" s="136"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="153"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="52"/>
     </row>
-    <row r="36" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="150"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="112"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="113"/>
-      <c r="AD36" s="114"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="70"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="56"/>
+    <row r="36" spans="1:36" s="53" customFormat="1">
+      <c r="A36" s="47"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="52"/>
     </row>
-    <row r="37" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A37" s="51"/>
-      <c r="B37" s="150"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="112"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="114"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="70"/>
-      <c r="AI37" s="71"/>
-      <c r="AJ37" s="56"/>
+    <row r="37" spans="1:36" s="53" customFormat="1">
+      <c r="A37" s="47"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
+      <c r="M37" s="152"/>
+      <c r="N37" s="152"/>
+      <c r="O37" s="153"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="52"/>
     </row>
-    <row r="38" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A38" s="51"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="18"/>
-      <c r="AA38" s="18"/>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="114"/>
-      <c r="AE38" s="18"/>
-      <c r="AF38" s="18"/>
-      <c r="AG38" s="18"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="71"/>
-      <c r="AJ38" s="56"/>
+    <row r="38" spans="1:36" s="53" customFormat="1">
+      <c r="A38" s="47"/>
+      <c r="B38" s="136"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
+      <c r="M38" s="152"/>
+      <c r="N38" s="152"/>
+      <c r="O38" s="153"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="52"/>
     </row>
-    <row r="39" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="51"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="18"/>
-      <c r="AA39" s="18"/>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="114"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="18"/>
-      <c r="AG39" s="18"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="71"/>
-      <c r="AJ39" s="56"/>
+    <row r="39" spans="1:36" s="53" customFormat="1">
+      <c r="A39" s="47"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
+      <c r="M39" s="152"/>
+      <c r="N39" s="152"/>
+      <c r="O39" s="153"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="52"/>
     </row>
-    <row r="40" spans="1:36" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="51"/>
-      <c r="B40" s="151"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="77"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="69"/>
-      <c r="AJ40" s="56"/>
+    <row r="40" spans="1:36" s="53" customFormat="1">
+      <c r="A40" s="47"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
+      <c r="M40" s="152"/>
+      <c r="N40" s="152"/>
+      <c r="O40" s="153"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="52"/>
     </row>
-    <row r="41" spans="1:36" ht="51" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79" t="s">
+    <row r="41" spans="1:36" s="53" customFormat="1">
+      <c r="A41" s="47"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
+      <c r="M41" s="152"/>
+      <c r="N41" s="152"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="100"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="52"/>
+    </row>
+    <row r="42" spans="1:36" s="53" customFormat="1">
+      <c r="A42" s="47"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="152"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="52"/>
+    </row>
+    <row r="43" spans="1:36" s="53" customFormat="1">
+      <c r="A43" s="47"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
+      <c r="M43" s="152"/>
+      <c r="N43" s="152"/>
+      <c r="O43" s="153"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="52"/>
+    </row>
+    <row r="44" spans="1:36" s="53" customFormat="1">
+      <c r="A44" s="47"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
+      <c r="M44" s="152"/>
+      <c r="N44" s="152"/>
+      <c r="O44" s="153"/>
+      <c r="P44" s="100"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="52"/>
+    </row>
+    <row r="45" spans="1:36" s="53" customFormat="1">
+      <c r="A45" s="47"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="103"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="62"/>
+      <c r="AJ45" s="52"/>
+    </row>
+    <row r="46" spans="1:36" ht="51" customHeight="1">
+      <c r="A46" s="41"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="83"/>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="82"/>
-      <c r="AF41" s="82"/>
-      <c r="AG41" s="82"/>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="84"/>
-      <c r="AJ41" s="44"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="67"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="70"/>
+      <c r="R46" s="70"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70"/>
+      <c r="Z46" s="70"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="71"/>
+      <c r="AD46" s="70"/>
+      <c r="AE46" s="70"/>
+      <c r="AF46" s="70"/>
+      <c r="AG46" s="70"/>
+      <c r="AH46" s="70"/>
+      <c r="AI46" s="72"/>
+      <c r="AJ46" s="40"/>
     </row>
-    <row r="42" spans="1:36" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="88" t="s">
+    <row r="47" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="41"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="P42" s="89"/>
-      <c r="Q42" s="90"/>
-      <c r="R42" s="90"/>
-      <c r="S42" s="90"/>
-      <c r="T42" s="90"/>
-      <c r="U42" s="90"/>
-      <c r="V42" s="90"/>
-      <c r="W42" s="90"/>
-      <c r="X42" s="90"/>
-      <c r="Y42" s="90"/>
-      <c r="Z42" s="90"/>
-      <c r="AA42" s="90"/>
-      <c r="AB42" s="91"/>
-      <c r="AC42" s="92"/>
-      <c r="AD42" s="91"/>
-      <c r="AE42" s="91"/>
-      <c r="AF42" s="91"/>
-      <c r="AG42" s="91"/>
-      <c r="AH42" s="91"/>
-      <c r="AI42" s="93"/>
-      <c r="AJ42" s="44"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="78"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="78"/>
+      <c r="W47" s="78"/>
+      <c r="X47" s="78"/>
+      <c r="Y47" s="78"/>
+      <c r="Z47" s="78"/>
+      <c r="AA47" s="78"/>
+      <c r="AB47" s="79"/>
+      <c r="AC47" s="80"/>
+      <c r="AD47" s="79"/>
+      <c r="AE47" s="79"/>
+      <c r="AF47" s="79"/>
+      <c r="AG47" s="79"/>
+      <c r="AH47" s="79"/>
+      <c r="AI47" s="81"/>
+      <c r="AJ47" s="40"/>
     </row>
-    <row r="43" spans="1:36" ht="26.25" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="94" t="s">
+    <row r="48" spans="1:36" ht="26.25" customHeight="1">
+      <c r="A48" s="41"/>
+      <c r="B48" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="88" t="s">
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
-      <c r="W43" s="98"/>
-      <c r="X43" s="98"/>
-      <c r="Y43" s="98"/>
-      <c r="Z43" s="98"/>
-      <c r="AA43" s="98"/>
-      <c r="AB43" s="98"/>
-      <c r="AC43" s="99"/>
-      <c r="AD43" s="98"/>
-      <c r="AE43" s="98"/>
-      <c r="AF43" s="98"/>
-      <c r="AG43" s="98"/>
-      <c r="AH43" s="98"/>
-      <c r="AI43" s="98"/>
-      <c r="AJ43" s="44"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="85"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="86"/>
+      <c r="X48" s="86"/>
+      <c r="Y48" s="86"/>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="86"/>
+      <c r="AB48" s="86"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="86"/>
+      <c r="AF48" s="86"/>
+      <c r="AG48" s="86"/>
+      <c r="AH48" s="86"/>
+      <c r="AI48" s="86"/>
+      <c r="AJ48" s="40"/>
     </row>
-    <row r="44" spans="1:36" ht="23.1" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47" t="s">
+    <row r="49" spans="1:36" ht="23.1" customHeight="1">
+      <c r="A49" s="41"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="102" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="Q44" s="102" t="s">
+      <c r="Q49" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="R44" s="102" t="s">
+      <c r="R49" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="S44" s="102" t="s">
+      <c r="S49" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="T44" s="102"/>
-      <c r="U44" s="102"/>
-      <c r="V44" s="102"/>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102"/>
-      <c r="Y44" s="102"/>
-      <c r="Z44" s="102"/>
-      <c r="AA44" s="102"/>
-      <c r="AB44" s="102"/>
-      <c r="AC44" s="102"/>
-      <c r="AD44" s="102"/>
-      <c r="AE44" s="102"/>
-      <c r="AF44" s="102"/>
-      <c r="AG44" s="102"/>
-      <c r="AH44" s="102"/>
-      <c r="AI44" s="102"/>
-      <c r="AJ44" s="44"/>
+      <c r="T49" s="90"/>
+      <c r="U49" s="90"/>
+      <c r="V49" s="90"/>
+      <c r="W49" s="90"/>
+      <c r="X49" s="90"/>
+      <c r="Y49" s="90"/>
+      <c r="Z49" s="90"/>
+      <c r="AA49" s="90"/>
+      <c r="AB49" s="90"/>
+      <c r="AC49" s="90"/>
+      <c r="AD49" s="90"/>
+      <c r="AE49" s="90"/>
+      <c r="AF49" s="90"/>
+      <c r="AG49" s="90"/>
+      <c r="AH49" s="90"/>
+      <c r="AI49" s="90"/>
+      <c r="AJ49" s="40"/>
     </row>
-    <row r="45" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="96" t="s">
+    <row r="50" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A50" s="41"/>
+      <c r="B50" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="155" t="s">
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="91"/>
+      <c r="P50" s="53"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="53"/>
+      <c r="T50" s="53"/>
+      <c r="U50" s="53"/>
+      <c r="V50" s="53"/>
+      <c r="W50" s="53"/>
+      <c r="X50" s="53"/>
+      <c r="Y50" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="Z45" s="155"/>
-      <c r="AA45" s="155"/>
-      <c r="AB45" s="156"/>
-      <c r="AC45" s="156"/>
-      <c r="AD45" s="156"/>
-      <c r="AE45" s="156"/>
-      <c r="AF45" s="157"/>
-      <c r="AG45" s="157"/>
-      <c r="AH45" s="157"/>
-      <c r="AI45" s="157"/>
-      <c r="AJ45" s="44"/>
+      <c r="Z50" s="141"/>
+      <c r="AA50" s="141"/>
+      <c r="AB50" s="142"/>
+      <c r="AC50" s="142"/>
+      <c r="AD50" s="142"/>
+      <c r="AE50" s="142"/>
+      <c r="AF50" s="143"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="143"/>
+      <c r="AI50" s="143"/>
+      <c r="AJ50" s="40"/>
     </row>
-    <row r="46" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="104"/>
-      <c r="P46" s="105"/>
-      <c r="Q46" s="96"/>
-      <c r="R46" s="96"/>
-      <c r="S46" s="96"/>
-      <c r="T46" s="96"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="96"/>
-      <c r="W46" s="106"/>
-      <c r="X46" s="106"/>
-      <c r="Y46" s="155" t="s">
+    <row r="51" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A51" s="41"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="92"/>
+      <c r="P51" s="93"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="84"/>
+      <c r="U51" s="84"/>
+      <c r="V51" s="84"/>
+      <c r="W51" s="94"/>
+      <c r="X51" s="94"/>
+      <c r="Y51" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="Z46" s="155"/>
-      <c r="AA46" s="155"/>
-      <c r="AB46" s="156"/>
-      <c r="AC46" s="156"/>
-      <c r="AD46" s="156"/>
-      <c r="AE46" s="156"/>
-      <c r="AF46" s="157"/>
-      <c r="AG46" s="157"/>
-      <c r="AH46" s="157"/>
-      <c r="AI46" s="157"/>
-      <c r="AJ46" s="44"/>
+      <c r="Z51" s="141"/>
+      <c r="AA51" s="141"/>
+      <c r="AB51" s="142"/>
+      <c r="AC51" s="142"/>
+      <c r="AD51" s="142"/>
+      <c r="AE51" s="142"/>
+      <c r="AF51" s="143"/>
+      <c r="AG51" s="143"/>
+      <c r="AH51" s="143"/>
+      <c r="AI51" s="143"/>
+      <c r="AJ51" s="40"/>
     </row>
-    <row r="47" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="108"/>
-      <c r="U47" s="108"/>
-      <c r="V47" s="108"/>
-      <c r="W47" s="110"/>
-      <c r="X47" s="110"/>
-      <c r="Y47" s="155" t="s">
+    <row r="52" spans="1:36" ht="19.5" customHeight="1">
+      <c r="A52" s="41"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="96"/>
+      <c r="U52" s="96"/>
+      <c r="V52" s="96"/>
+      <c r="W52" s="98"/>
+      <c r="X52" s="98"/>
+      <c r="Y52" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="Z47" s="155"/>
-      <c r="AA47" s="155"/>
-      <c r="AB47" s="146"/>
-      <c r="AC47" s="147"/>
-      <c r="AD47" s="147"/>
-      <c r="AE47" s="148"/>
-      <c r="AF47" s="157"/>
-      <c r="AG47" s="157"/>
-      <c r="AH47" s="157"/>
-      <c r="AI47" s="157"/>
-      <c r="AJ47" s="44"/>
+      <c r="Z52" s="141"/>
+      <c r="AA52" s="141"/>
+      <c r="AB52" s="132"/>
+      <c r="AC52" s="133"/>
+      <c r="AD52" s="133"/>
+      <c r="AE52" s="134"/>
+      <c r="AF52" s="143"/>
+      <c r="AG52" s="143"/>
+      <c r="AH52" s="143"/>
+      <c r="AI52" s="143"/>
+      <c r="AJ52" s="40"/>
     </row>
-    <row r="48" spans="1:36" ht="17.100000000000001" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="108" t="s">
+    <row r="53" spans="1:36" ht="17.100000000000001" customHeight="1">
+      <c r="A53" s="41"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="108"/>
-      <c r="O48" s="108"/>
-      <c r="P48" s="108"/>
-      <c r="Q48" s="108"/>
-      <c r="R48" s="108"/>
-      <c r="S48" s="108"/>
-      <c r="T48" s="108"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="111" t="s">
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="96"/>
+      <c r="M53" s="96"/>
+      <c r="N53" s="96"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="96"/>
+      <c r="Q53" s="96"/>
+      <c r="R53" s="96"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="96"/>
+      <c r="U53" s="97"/>
+      <c r="V53" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="W48" s="47"/>
-      <c r="X48" s="111"/>
-      <c r="Y48" s="100"/>
-      <c r="Z48" s="100"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="158">
+      <c r="W53" s="43"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="88"/>
+      <c r="AA53" s="89"/>
+      <c r="AB53" s="144">
         <f>AG6</f>
         <v>1</v>
       </c>
-      <c r="AC48" s="159"/>
-      <c r="AD48" s="159"/>
-      <c r="AE48" s="147" t="s">
+      <c r="AC53" s="145"/>
+      <c r="AD53" s="145"/>
+      <c r="AE53" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="AF48" s="147"/>
-      <c r="AG48" s="160">
+      <c r="AF53" s="133"/>
+      <c r="AG53" s="146">
         <f>AI6</f>
         <v>18</v>
       </c>
-      <c r="AH48" s="160"/>
-      <c r="AI48" s="161"/>
-      <c r="AJ48" s="44"/>
+      <c r="AH53" s="146"/>
+      <c r="AI53" s="147"/>
+      <c r="AJ53" s="40"/>
     </row>
-    <row r="49" ht="6" customHeight="1"/>
-    <row r="50" ht="17.100000000000001" customHeight="1"/>
+    <row r="54" spans="1:36" ht="6" customHeight="1"/>
+    <row r="55" spans="1:36" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="C39:O39"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="C37:O37"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="AB47:AE47"/>
-    <mergeCell ref="AF47:AI47"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AI48"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="AB45:AE45"/>
-    <mergeCell ref="AF45:AI45"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="AB46:AE46"/>
-    <mergeCell ref="AF46:AI46"/>
+  <mergeCells count="62">
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="AB52:AE52"/>
+    <mergeCell ref="AF52:AI52"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="AG53:AI53"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="AB50:AE50"/>
+    <mergeCell ref="AF50:AI50"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="AB51:AE51"/>
+    <mergeCell ref="AF51:AI51"/>
     <mergeCell ref="AA6:AF6"/>
     <mergeCell ref="B8:B26"/>
-    <mergeCell ref="B27:B40"/>
+    <mergeCell ref="B27:B45"/>
     <mergeCell ref="C8:O8"/>
     <mergeCell ref="C9:O9"/>
     <mergeCell ref="C10:O10"/>
@@ -15577,14 +15692,26 @@
     <mergeCell ref="C23:O23"/>
     <mergeCell ref="C24:O24"/>
     <mergeCell ref="C25:O25"/>
-    <mergeCell ref="C32:O32"/>
     <mergeCell ref="C27:O27"/>
     <mergeCell ref="C28:O28"/>
     <mergeCell ref="C29:O29"/>
     <mergeCell ref="C30:O30"/>
     <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C42:O42"/>
+    <mergeCell ref="C43:O43"/>
+    <mergeCell ref="C44:O44"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C41:O41"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <printOptions gridLinesSet="0"/>
   <pageMargins left="0.39370078740157483" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
